--- a/Power Output Energy Generation 2020.xlsx
+++ b/Power Output Energy Generation 2020.xlsx
@@ -8,29 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B044C6-C3EB-4512-9D7B-F60473B39C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B33A7-1DA8-47E7-B43F-C47F41DCA88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="2685" windowWidth="9390" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Sheet2!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">Sheet2!$D$2:$D$37</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Sheet2!$C$2:$C$37</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Sheet2!$D$2:$D$37</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Sheet2!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">Sheet2!$C$2:$C$37</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -462,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:W36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,8 +2300,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R14:W19">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="R2:W7">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2326,8 +2312,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:W7">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="R14:W19">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2346,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56890010-7483-4538-8386-8F83AC6C3638}">
   <dimension ref="A1:AT144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y10" zoomScale="306" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView tabSelected="1" topLeftCell="Z7" zoomScale="118" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2346,8 @@
     <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2428,19 +2415,19 @@
         <f t="array" ref="R2:W7">INDEX(F1:F36,_xlfn.SEQUENCE(6, 6))</f>
         <v>49592498532.217903</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>50189232497.892502</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>50396769899.980904</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>47374811037.661102</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>33119654741.355999</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>31545124779.626598</v>
       </c>
     </row>
@@ -2466,19 +2453,19 @@
       <c r="R3" s="4">
         <v>48681697011.060898</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>49845151878.928001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>51247696630.583199</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>53113652999.579002</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>54236284994.551804</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>54275683870.939499</v>
       </c>
     </row>
@@ -2504,19 +2491,19 @@
       <c r="R4" s="4">
         <v>48841761084.026604</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>49139412844.310097</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>50293734479.549698</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>51054020415.359703</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>51386156654.2146</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>51039615508.359703</v>
       </c>
     </row>
@@ -2542,19 +2529,19 @@
       <c r="R5" s="4">
         <v>49548899136.3452</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>49627628732.261597</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <v>50106417723.577599</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <v>50350468861.894501</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>50335624560.043198</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="4">
         <v>50103758344.545601</v>
       </c>
     </row>
@@ -2580,19 +2567,19 @@
       <c r="R6" s="4">
         <v>49507941219.5672</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>49578771772.431099</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>49839335978.331802</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>50028619639.045898</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>50129216041.103104</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>49649483895.055099</v>
       </c>
     </row>
@@ -2619,19 +2606,19 @@
       <c r="R7" s="4">
         <v>49706551719.342598</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>49258872542.167999</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>48513316103.489799</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>43983233455.127197</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>39549503724.815498</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>33028149218.6203</v>
       </c>
     </row>
@@ -4092,8 +4079,8 @@
     <mergeCell ref="AO19:AT19"/>
     <mergeCell ref="AM21:AM26"/>
   </mergeCells>
-  <conditionalFormatting sqref="R14:W19">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="R2:W7">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4104,8 +4091,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:W7">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="R14:W19">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4149,7 +4136,7 @@
   <dimension ref="B1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D37"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
